--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BC/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BC/15/seed1/result_data_RandomForest.xlsx
@@ -499,10 +499,10 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>4.960200000000003</v>
+        <v>5.027500000000004</v>
       </c>
       <c r="C4" t="n">
-        <v>-14.27939999999999</v>
+        <v>-14.3389</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-14.63550000000001</v>
+        <v>-14.73840000000001</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -533,7 +533,7 @@
         <v>-20.35</v>
       </c>
       <c r="B6" t="n">
-        <v>9.385600000000005</v>
+        <v>9.0512</v>
       </c>
       <c r="C6" t="n">
         <v>-12.89</v>
@@ -550,7 +550,7 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>6.112599999999997</v>
+        <v>6.324999999999997</v>
       </c>
       <c r="C7" t="n">
         <v>-10.59</v>
@@ -570,7 +570,7 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.01719999999999</v>
+        <v>-11.86849999999999</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -703,10 +703,10 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>9.487400000000008</v>
+        <v>8.616200000000006</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.1981</v>
+        <v>-11.9672</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -771,7 +771,7 @@
         <v>-22.69</v>
       </c>
       <c r="B20" t="n">
-        <v>5.819999999999999</v>
+        <v>5.732699999999999</v>
       </c>
       <c r="C20" t="n">
         <v>-14.65</v>
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-10.73999999999999</v>
+        <v>-11.01909999999999</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
